--- a/biology/Médecine/Pinta_(maladie)/Pinta_(maladie).xlsx
+++ b/biology/Médecine/Pinta_(maladie)/Pinta_(maladie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pinta ou « caraté » est une tréponématose, une maladie tropicale chronique de la peau causée par le  spirochète Treponema carateum. Elle atteint les enfants et adolescents des régions tropicales et forestières d'Amérique Centrale et d'Amérique du Sud.
 C'est une affection relativement bénigne, entraînant uniquement des lésions cutanées, d'abord inflammatoires puis dyschromiques. 
